--- a/src/test/resources/sandbox/dbunit/XlsDataSetTest/test.xlsx
+++ b/src/test/resources/sandbox/dbunit/XlsDataSetTest/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\github\opengl-8080\dbunit-sandbox\src\test\resources\sandbox\dbunit\XlsDataSetTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAA1F8B-CC83-476E-AD7E-CBC62ACA4C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AC30F3-E71D-4479-82F4-BB38CD0660DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_table" sheetId="1" r:id="rId1"/>
+    <sheet name="foo_table" sheetId="1" r:id="rId1"/>
+    <sheet name="bar_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +63,18 @@
   <si>
     <t>bar</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>foo_id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -389,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -399,32 +412,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -433,4 +445,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25542BC3-7E51-46BF-BFF0-4826BFFE5204}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>